--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3710896.850638465</v>
+        <v>3710381.221024107</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2104816.956126889</v>
+        <v>2104816.956126888</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>826053.903419783</v>
+        <v>826053.9034197838</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>75.85805125439818</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>116.2160671087067</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>87.15775655642693</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>219.9252517290187</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>60.55060284070301</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>151.7003141656967</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>2.985676702962993</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>246.6584610624064</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>285.8222677061726</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>310.1826871216515</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>85.17955375501148</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>46.66637815986219</v>
       </c>
     </row>
     <row r="11">
@@ -1372,25 +1372,25 @@
         <v>302.4985237799665</v>
       </c>
       <c r="C11" t="n">
-        <v>264.1684378648025</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
         <v>304.5664151603045</v>
       </c>
       <c r="F11" t="n">
-        <v>318.7342196110056</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
-        <v>315.0398534825604</v>
+        <v>39.32284758254293</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414342</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404354</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T11" t="n">
-        <v>127.2743219418611</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
-        <v>159.203927795431</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6944667292004</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
         <v>273.297770207079</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007186</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035427</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D13" t="n">
-        <v>60.085507492194</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507311</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484038</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723251</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380455</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497648</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943253</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S13" t="n">
         <v>106.7966485049597</v>
@@ -1584,7 +1584,7 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U13" t="n">
-        <v>188.5931293662017</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V13" t="n">
         <v>169.3282772530676</v>
@@ -1596,7 +1596,7 @@
         <v>137.7482445205303</v>
       </c>
       <c r="Y13" t="n">
-        <v>126.8896660972067</v>
+        <v>126.8896660972066</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>267.3785652394204</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
@@ -1624,10 +1624,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6944667292003</v>
+        <v>128.1813886246135</v>
       </c>
       <c r="W14" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X14" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H16" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S16" t="n">
         <v>106.7966485049597</v>
@@ -1824,13 +1824,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y16" t="n">
         <v>126.8896660972066</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
         <v>282.3655247697376</v>
@@ -2335,10 +2335,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>34.48845019277517</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
         <v>236.929075365811</v>
@@ -2386,7 +2386,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>128.0652136235382</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>244.6944667292004</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>153.3019709307479</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007186</v>
+        <v>89.36466403007184</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035427</v>
+        <v>74.51179228035424</v>
       </c>
       <c r="D28" t="n">
-        <v>60.085507492194</v>
+        <v>60.08550749219397</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507311</v>
+        <v>60.01194954507308</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484038</v>
+        <v>61.76140096484035</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723251</v>
+        <v>72.58023888723248</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380455</v>
+        <v>59.93249105380453</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497648</v>
+        <v>37.77220663497582</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943253</v>
+        <v>28.67070499943237</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2781,7 +2781,7 @@
         <v>137.7482445205303</v>
       </c>
       <c r="Y28" t="n">
-        <v>126.8896660972067</v>
+        <v>126.8896660972066</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C29" t="n">
-        <v>295.2524720077822</v>
+        <v>295.2524720077823</v>
       </c>
       <c r="D29" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F29" t="n">
-        <v>318.7342196110055</v>
+        <v>318.7342196110056</v>
       </c>
       <c r="G29" t="n">
-        <v>315.0398534825604</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414339</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>126.8448256348766</v>
       </c>
       <c r="V29" t="n">
-        <v>149.9347764475696</v>
+        <v>244.6944667292004</v>
       </c>
       <c r="W29" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007184</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035424</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219397</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507308</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484035</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723248</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380453</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943237</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3006,16 +3006,16 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662017</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3097,7 +3097,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="33">
@@ -3271,7 +3271,7 @@
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
         <v>282.3655247697376</v>
@@ -3520,10 +3520,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
         <v>236.929075365811</v>
@@ -3571,7 +3571,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>322.2802739911198</v>
+        <v>322.28027399112</v>
       </c>
       <c r="C41" t="n">
-        <v>315.0342222189356</v>
+        <v>315.0342222189357</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>307.377193232336</v>
       </c>
       <c r="E41" t="n">
-        <v>324.3481653714578</v>
+        <v>324.348165371458</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>334.8216036937138</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>246.6326956660112</v>
+        <v>140.4578148708596</v>
       </c>
       <c r="I41" t="n">
-        <v>62.74422147529675</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>90.63889524519688</v>
+        <v>90.63889524519701</v>
       </c>
       <c r="T41" t="n">
-        <v>147.0560721530144</v>
+        <v>147.0560721530146</v>
       </c>
       <c r="U41" t="n">
-        <v>178.9856780065843</v>
+        <v>178.9856780065844</v>
       </c>
       <c r="V41" t="n">
-        <v>264.4762169403537</v>
+        <v>264.4762169403539</v>
       </c>
       <c r="W41" t="n">
-        <v>293.0795204182323</v>
+        <v>293.0795204182325</v>
       </c>
       <c r="X41" t="n">
-        <v>311.3485547531106</v>
+        <v>311.3485547531108</v>
       </c>
       <c r="Y41" t="n">
-        <v>121.9527649936163</v>
+        <v>318.316277725442</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>109.1464142412252</v>
+        <v>109.1464142412253</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>94.29354249150774</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>79.79369975622645</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>81.54315117599371</v>
+        <v>47.67400062155897</v>
       </c>
       <c r="G43" t="n">
-        <v>92.36198909838585</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>79.71424126495789</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>57.55395684612982</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>48.45245521058574</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>126.5783987161132</v>
       </c>
       <c r="T43" t="n">
-        <v>159.1523370502852</v>
+        <v>159.1523370502853</v>
       </c>
       <c r="U43" t="n">
-        <v>208.374879577355</v>
+        <v>208.3748795773551</v>
       </c>
       <c r="V43" t="n">
-        <v>189.1100274642209</v>
+        <v>189.1100274642211</v>
       </c>
       <c r="W43" t="n">
-        <v>206.2875737849711</v>
+        <v>206.2875737849712</v>
       </c>
       <c r="X43" t="n">
-        <v>133.3278595169459</v>
+        <v>157.5299947316838</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>146.6714163083601</v>
       </c>
     </row>
     <row r="44">
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>322.28027399112</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>315.0342222189357</v>
       </c>
       <c r="D44" t="n">
         <v>307.377193232336</v>
       </c>
       <c r="E44" t="n">
-        <v>324.3481653714579</v>
+        <v>324.348165371458</v>
       </c>
       <c r="F44" t="n">
         <v>338.515969822159</v>
@@ -3994,10 +3994,10 @@
         <v>334.8216036937139</v>
       </c>
       <c r="H44" t="n">
-        <v>246.6326956660113</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>62.74422147529687</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>90.63889524519699</v>
+        <v>90.63889524519701</v>
       </c>
       <c r="T44" t="n">
         <v>147.0560721530146</v>
@@ -4036,16 +4036,16 @@
         <v>178.9856780065844</v>
       </c>
       <c r="V44" t="n">
-        <v>264.4762169403538</v>
+        <v>24.67597871357263</v>
       </c>
       <c r="W44" t="n">
-        <v>293.0795204182324</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>311.3485547531108</v>
       </c>
       <c r="Y44" t="n">
-        <v>113.3740981491764</v>
+        <v>318.316277725442</v>
       </c>
     </row>
     <row r="45">
@@ -4137,25 +4137,25 @@
         <v>109.1464142412253</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>94.29354249150774</v>
       </c>
       <c r="D46" t="n">
-        <v>79.86725770334745</v>
+        <v>79.86725770334746</v>
       </c>
       <c r="E46" t="n">
-        <v>79.79369975622656</v>
+        <v>79.79369975622657</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>92.36198909838596</v>
+        <v>92.36198909838598</v>
       </c>
       <c r="H46" t="n">
-        <v>79.71424126495801</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>57.55395684612994</v>
+        <v>57.55395684612995</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>159.1523370502853</v>
       </c>
       <c r="U46" t="n">
-        <v>208.3748795773551</v>
+        <v>73.05037551093726</v>
       </c>
       <c r="V46" t="n">
-        <v>189.110027464221</v>
+        <v>189.1100274642211</v>
       </c>
       <c r="W46" t="n">
         <v>206.2875737849712</v>
@@ -4203,7 +4203,7 @@
         <v>157.5299947316838</v>
       </c>
       <c r="Y46" t="n">
-        <v>25.92621346849255</v>
+        <v>146.6714163083601</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>974.7039764460137</v>
+        <v>857.3140096695423</v>
       </c>
       <c r="C2" t="n">
-        <v>974.7039764460137</v>
+        <v>857.3140096695423</v>
       </c>
       <c r="D2" t="n">
-        <v>589.2628476626815</v>
+        <v>471.8728808862101</v>
       </c>
       <c r="E2" t="n">
-        <v>186.679322779226</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="F2" t="n">
-        <v>173.8252883496078</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G2" t="n">
-        <v>164.702936878015</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H2" t="n">
         <v>47.31297010154361</v>
@@ -4330,22 +4330,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K2" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L2" t="n">
-        <v>899.6156178475343</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M2" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N2" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O2" t="n">
-        <v>2180.802944936232</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P2" t="n">
         <v>2180.802944936232</v>
@@ -4354,28 +4354,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S2" t="n">
-        <v>2161.142036303753</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T2" t="n">
-        <v>2161.142036303753</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U2" t="n">
-        <v>2161.142036303753</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V2" t="n">
-        <v>2161.142036303753</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="W2" t="n">
-        <v>2161.142036303753</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="X2" t="n">
-        <v>1771.689431236809</v>
+        <v>1330.429012945303</v>
       </c>
       <c r="Y2" t="n">
-        <v>1375.198722157411</v>
+        <v>933.9383038659041</v>
       </c>
     </row>
     <row r="3">
@@ -4412,13 +4412,13 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K3" t="n">
-        <v>160.4279523212711</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L3" t="n">
-        <v>160.4279523212711</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="M3" t="n">
-        <v>623.6437572083089</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N3" t="n">
         <v>1209.141762214911</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>403.5294713069377</v>
+        <v>541.4052550335941</v>
       </c>
       <c r="C4" t="n">
-        <v>233.3243533729269</v>
+        <v>371.2001370995833</v>
       </c>
       <c r="D4" t="n">
-        <v>77.69124027544166</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="E4" t="n">
-        <v>77.69124027544166</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="F4" t="n">
-        <v>77.69124027544166</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="G4" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H4" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I4" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
         <v>47.31297010154361</v>
@@ -4524,16 +4524,16 @@
         <v>948.7599926430961</v>
       </c>
       <c r="V4" t="n">
-        <v>860.7218547073113</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W4" t="n">
-        <v>860.7218547073113</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X4" t="n">
-        <v>626.6415324902944</v>
+        <v>726.6132737248954</v>
       </c>
       <c r="Y4" t="n">
-        <v>403.5294713069377</v>
+        <v>726.6132737248954</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>661.9641994989784</v>
+        <v>1798.640204306834</v>
       </c>
       <c r="C5" t="n">
-        <v>268.7886980019089</v>
+        <v>1405.464702809765</v>
       </c>
       <c r="D5" t="n">
-        <v>207.6264729102897</v>
+        <v>1020.023574026432</v>
       </c>
       <c r="E5" t="n">
-        <v>207.6264729102897</v>
+        <v>617.4400491429767</v>
       </c>
       <c r="F5" t="n">
-        <v>194.7724384806716</v>
+        <v>200.5456106729545</v>
       </c>
       <c r="G5" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H5" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I5" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>91.34618151762533</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>450.3285375450872</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L5" t="n">
-        <v>943.648829263616</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M5" t="n">
-        <v>1489.649729308197</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N5" t="n">
-        <v>2017.461012945658</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O5" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P5" t="n">
         <v>2365.64850507718</v>
@@ -4591,28 +4591,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S5" t="n">
-        <v>2327.655591362702</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T5" t="n">
-        <v>2104.154988922119</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U5" t="n">
-        <v>1848.402259356717</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="V5" t="n">
-        <v>1848.402259356717</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="W5" t="n">
-        <v>1848.402259356717</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="X5" t="n">
-        <v>1458.949654289774</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="Y5" t="n">
-        <v>1062.458945210375</v>
+        <v>2199.134950018231</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K6" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L6" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
-        <v>858.0088487631995</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N6" t="n">
-        <v>1443.506853769802</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="O6" t="n">
-        <v>1960.027136360783</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q6" t="n">
         <v>2365.64850507718</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50.32880515504158</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="C7" t="n">
-        <v>50.32880515504158</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="D7" t="n">
-        <v>50.32880515504158</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="E7" t="n">
-        <v>50.32880515504158</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="F7" t="n">
-        <v>50.32880515504158</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="G7" t="n">
-        <v>50.32880515504158</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H7" t="n">
         <v>47.31297010154361</v>
@@ -4752,25 +4752,25 @@
         <v>824.8590032756731</v>
       </c>
       <c r="S7" t="n">
-        <v>824.8590032756731</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T7" t="n">
-        <v>824.8590032756731</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="U7" t="n">
-        <v>539.420211517574</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="V7" t="n">
-        <v>273.4408663383982</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="W7" t="n">
-        <v>273.4408663383982</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="X7" t="n">
-        <v>273.4408663383982</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="Y7" t="n">
-        <v>50.32880515504158</v>
+        <v>372.8929587891251</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>207.6264729102897</v>
+        <v>1568.663050286385</v>
       </c>
       <c r="C8" t="n">
-        <v>207.6264729102897</v>
+        <v>1568.663050286385</v>
       </c>
       <c r="D8" t="n">
-        <v>207.6264729102897</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E8" t="n">
-        <v>207.6264729102897</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806716</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4828,28 +4828,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863169</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>1681.888704297768</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>1681.888704297768</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W8" t="n">
-        <v>1310.889669266056</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X8" t="n">
-        <v>921.4370641991123</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y8" t="n">
-        <v>608.1212186216866</v>
+        <v>1969.157795997781</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F9" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L9" t="n">
-        <v>530.8790559998569</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="M9" t="n">
-        <v>1116.377061006459</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="N9" t="n">
-        <v>1701.875066013061</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O9" t="n">
-        <v>2218.395348604042</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W9" t="n">
         <v>1367.096582257017</v>
@@ -4928,7 +4928,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77.69124027544166</v>
+        <v>716.4142182347623</v>
       </c>
       <c r="C10" t="n">
-        <v>77.69124027544166</v>
+        <v>546.2091003007515</v>
       </c>
       <c r="D10" t="n">
-        <v>77.69124027544166</v>
+        <v>390.5759872032662</v>
       </c>
       <c r="E10" t="n">
-        <v>77.69124027544166</v>
+        <v>235.0171750624687</v>
       </c>
       <c r="F10" t="n">
         <v>77.69124027544166</v>
@@ -4989,25 +4989,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>862.7200393552057</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>627.0009875234398</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>627.0009875234398</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>361.021642344264</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>77.69124027544166</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>77.69124027544166</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>77.69124027544166</v>
+        <v>901.6222369260636</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1320.171044252415</v>
+        <v>1320.171044252416</v>
       </c>
       <c r="C11" t="n">
-        <v>1053.334238328372</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D11" t="n">
-        <v>1053.334238328372</v>
+        <v>731.4357765463913</v>
       </c>
       <c r="E11" t="n">
-        <v>745.691394732105</v>
+        <v>423.7929329501241</v>
       </c>
       <c r="F11" t="n">
-        <v>423.737637549271</v>
+        <v>101.8391757672902</v>
       </c>
       <c r="G11" t="n">
-        <v>105.5155633244624</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H11" t="n">
-        <v>105.5155633244624</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5074,19 +5074,19 @@
         <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>2745.011542002407</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V11" t="n">
-        <v>2497.845413993113</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W11" t="n">
-        <v>2221.787060248589</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>1927.275136468834</v>
+        <v>1927.275136468836</v>
       </c>
       <c r="Y11" t="n">
-        <v>1625.725108676624</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C12" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D12" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E12" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F12" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G12" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H12" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I12" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>900.7358324498676</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>900.7358324498676</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>1384.301918348181</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>2012.073567974862</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N12" t="n">
-        <v>2589.436102614795</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O12" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R12" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S12" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T12" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U12" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V12" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W12" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X12" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y12" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1920.83745067606</v>
+        <v>493.0843669551006</v>
       </c>
       <c r="C13" t="n">
-        <v>1845.573014029238</v>
+        <v>417.8199303082782</v>
       </c>
       <c r="D13" t="n">
-        <v>1784.880582218941</v>
+        <v>357.1274984979813</v>
       </c>
       <c r="E13" t="n">
-        <v>1724.262451365332</v>
+        <v>296.5093676443721</v>
       </c>
       <c r="F13" t="n">
-        <v>1661.877197865493</v>
+        <v>234.1241141445333</v>
       </c>
       <c r="G13" t="n">
-        <v>1588.563825252127</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H13" t="n">
-        <v>1528.025955500809</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I13" t="n">
-        <v>1489.872211425075</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>1553.149830557211</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K13" t="n">
-        <v>1728.036233396726</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L13" t="n">
-        <v>1985.215235000099</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M13" t="n">
-        <v>2264.558175067936</v>
+        <v>836.8050913469768</v>
       </c>
       <c r="N13" t="n">
-        <v>2540.799170828719</v>
+        <v>1113.04608710776</v>
       </c>
       <c r="O13" t="n">
-        <v>2796.5552996</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
-        <v>3009.482827106152</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q13" t="n">
-        <v>3105.956385205776</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R13" t="n">
-        <v>3076.996077125541</v>
+        <v>1649.242993404582</v>
       </c>
       <c r="S13" t="n">
-        <v>2969.120674595279</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T13" t="n">
-        <v>2828.342304050702</v>
+        <v>1400.589220329742</v>
       </c>
       <c r="U13" t="n">
-        <v>2637.844193579791</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V13" t="n">
-        <v>2466.805529687804</v>
+        <v>1039.052445966845</v>
       </c>
       <c r="W13" t="n">
-        <v>2278.41580890617</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X13" t="n">
-        <v>2139.276167976342</v>
+        <v>711.5230842553819</v>
       </c>
       <c r="Y13" t="n">
-        <v>2011.104788080173</v>
+        <v>583.3517043592136</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1552.55596630239</v>
+        <v>1598.67307041405</v>
       </c>
       <c r="C14" t="n">
-        <v>1552.55596630239</v>
+        <v>1300.438250204169</v>
       </c>
       <c r="D14" t="n">
-        <v>1282.476607474693</v>
+        <v>1009.937802708025</v>
       </c>
       <c r="E14" t="n">
-        <v>974.8337638784258</v>
+        <v>702.2949591117579</v>
       </c>
       <c r="F14" t="n">
-        <v>652.8800066955919</v>
+        <v>380.341201928924</v>
       </c>
       <c r="G14" t="n">
-        <v>334.6579324707834</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H14" t="n">
-        <v>105.5155633244624</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5305,25 +5305,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>2977.396464052381</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>2977.396464052381</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="V14" t="n">
-        <v>2730.230336043088</v>
+        <v>2776.347440154748</v>
       </c>
       <c r="W14" t="n">
-        <v>2454.171982298564</v>
+        <v>2500.289086410224</v>
       </c>
       <c r="X14" t="n">
-        <v>2159.660058518809</v>
+        <v>2205.777162630469</v>
       </c>
       <c r="Y14" t="n">
-        <v>1858.110030726599</v>
+        <v>1904.227134838259</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>175.2341099238429</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>658.8001958221562</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>1286.571845448837</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5439,22 +5439,22 @@
         <v>125.3967468362513</v>
       </c>
       <c r="K16" t="n">
-        <v>300.2831496757665</v>
+        <v>300.2831496757668</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791394</v>
+        <v>557.4621512791398</v>
       </c>
       <c r="M16" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469772</v>
       </c>
       <c r="N16" t="n">
-        <v>1113.046087107759</v>
+        <v>1113.04608710776</v>
       </c>
       <c r="O16" t="n">
         <v>1368.802215879041</v>
       </c>
       <c r="P16" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q16" t="n">
         <v>1678.203301484817</v>
@@ -5472,16 +5472,16 @@
         <v>1210.091109858832</v>
       </c>
       <c r="V16" t="n">
-        <v>1039.052445966845</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.66272518521</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553815</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592133</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="17">
@@ -5594,25 +5594,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>174.7633905351325</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>174.7633905351325</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>174.7633905351325</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>802.5350401618138</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5673,25 +5673,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>67.69877031229927</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960409</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>499.953029634305</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>683.1426636655142</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296507</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q19" t="n">
         <v>1098.20216247628</v>
@@ -5737,13 +5737,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975455</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H20" t="n">
         <v>68.77950792924223</v>
@@ -5788,16 +5788,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5831,22 +5831,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P21" t="n">
         <v>2380.454662679751</v>
@@ -5916,22 +5916,22 @@
         <v>243.2367958390485</v>
       </c>
       <c r="L22" t="n">
-        <v>407.3644357128483</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M22" t="n">
-        <v>593.6560140511123</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N22" t="n">
-        <v>804.5780233445255</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O22" t="n">
-        <v>967.2827903862335</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5974,16 +5974,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975455</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6025,7 +6025,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
         <v>2405.467337224691</v>
@@ -6034,7 +6034,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M24" t="n">
-        <v>973.7913173233209</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N24" t="n">
-        <v>1629.56928853388</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O24" t="n">
-        <v>2146.089571124861</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6150,49 +6150,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>273.010538436486</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
         <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6259,16 +6259,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="U26" t="n">
-        <v>2976.597583565839</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V26" t="n">
-        <v>2729.431455556545</v>
+        <v>2858.790257196483</v>
       </c>
       <c r="W26" t="n">
-        <v>2729.431455556545</v>
+        <v>2582.731903451959</v>
       </c>
       <c r="X26" t="n">
-        <v>2434.91953177679</v>
+        <v>2288.219979672204</v>
       </c>
       <c r="Y26" t="n">
         <v>2133.36950398458</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C27" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D27" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E27" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F27" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G27" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H27" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I27" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J27" t="n">
-        <v>787.6208502301403</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K27" t="n">
-        <v>787.6208502301403</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L27" t="n">
-        <v>1271.186936128453</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M27" t="n">
-        <v>1528.036762687839</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N27" t="n">
-        <v>2183.814733898398</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O27" t="n">
-        <v>2700.335016489379</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P27" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q27" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R27" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S27" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T27" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U27" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V27" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W27" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X27" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y27" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1920.837450676061</v>
+        <v>493.0843669550999</v>
       </c>
       <c r="C28" t="n">
-        <v>1845.573014029238</v>
+        <v>417.8199303082774</v>
       </c>
       <c r="D28" t="n">
-        <v>1784.880582218941</v>
+        <v>357.1274984979805</v>
       </c>
       <c r="E28" t="n">
-        <v>1724.262451365332</v>
+        <v>296.5093676443713</v>
       </c>
       <c r="F28" t="n">
-        <v>1661.877197865493</v>
+        <v>234.1241141445326</v>
       </c>
       <c r="G28" t="n">
-        <v>1588.563825252127</v>
+        <v>160.8107415311664</v>
       </c>
       <c r="H28" t="n">
-        <v>1528.025955500809</v>
+        <v>100.2728717798487</v>
       </c>
       <c r="I28" t="n">
-        <v>1489.872211425075</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J28" t="n">
-        <v>1553.149830557211</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K28" t="n">
-        <v>1728.036233396726</v>
+        <v>300.2831496757664</v>
       </c>
       <c r="L28" t="n">
-        <v>1985.215235000099</v>
+        <v>557.4621512791394</v>
       </c>
       <c r="M28" t="n">
-        <v>2264.558175067936</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N28" t="n">
-        <v>2540.799170828719</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O28" t="n">
-        <v>2796.5552996</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P28" t="n">
-        <v>3009.482827106152</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q28" t="n">
-        <v>3105.956385205776</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R28" t="n">
-        <v>3076.996077125541</v>
+        <v>1649.242993404582</v>
       </c>
       <c r="S28" t="n">
-        <v>2969.120674595279</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T28" t="n">
-        <v>2828.342304050702</v>
+        <v>1400.589220329742</v>
       </c>
       <c r="U28" t="n">
-        <v>2637.844193579791</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V28" t="n">
-        <v>2466.805529687804</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W28" t="n">
-        <v>2278.41580890617</v>
+        <v>850.6627251852098</v>
       </c>
       <c r="X28" t="n">
-        <v>2139.276167976342</v>
+        <v>711.5230842553811</v>
       </c>
       <c r="Y28" t="n">
-        <v>2011.104788080174</v>
+        <v>583.3517043592128</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1871.211875180718</v>
+        <v>1552.989800955909</v>
       </c>
       <c r="C29" t="n">
-        <v>1572.977054970837</v>
+        <v>1254.754980746028</v>
       </c>
       <c r="D29" t="n">
-        <v>1282.476607474693</v>
+        <v>964.2545332498844</v>
       </c>
       <c r="E29" t="n">
-        <v>974.8337638784258</v>
+        <v>656.6116896536173</v>
       </c>
       <c r="F29" t="n">
-        <v>652.8800066955919</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="G29" t="n">
         <v>334.6579324707834</v>
@@ -6490,25 +6490,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S29" t="n">
-        <v>3034.383511434015</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T29" t="n">
-        <v>2905.82359028062</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U29" t="n">
-        <v>2905.82359028062</v>
+        <v>2977.830298705901</v>
       </c>
       <c r="V29" t="n">
-        <v>2754.374321141661</v>
+        <v>2730.664170696607</v>
       </c>
       <c r="W29" t="n">
-        <v>2478.315967397137</v>
+        <v>2454.605816952083</v>
       </c>
       <c r="X29" t="n">
-        <v>2478.315967397137</v>
+        <v>2160.093893172329</v>
       </c>
       <c r="Y29" t="n">
-        <v>2176.765939604927</v>
+        <v>1858.543865380118</v>
       </c>
     </row>
     <row r="30">
@@ -6545,22 +6545,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K30" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L30" t="n">
-        <v>174.7633905351325</v>
+        <v>862.5399502876207</v>
       </c>
       <c r="M30" t="n">
-        <v>802.5350401618138</v>
+        <v>1490.311599914302</v>
       </c>
       <c r="N30" t="n">
-        <v>1458.313011372373</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O30" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P30" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q30" t="n">
         <v>2380.454662679751</v>
@@ -6603,10 +6603,10 @@
         <v>417.819930308278</v>
       </c>
       <c r="D31" t="n">
-        <v>357.1274984979811</v>
+        <v>357.1274984979812</v>
       </c>
       <c r="E31" t="n">
-        <v>296.5093676443719</v>
+        <v>296.509367644372</v>
       </c>
       <c r="F31" t="n">
         <v>234.1241141445332</v>
@@ -6624,7 +6624,7 @@
         <v>125.3967468362513</v>
       </c>
       <c r="K31" t="n">
-        <v>300.2831496757665</v>
+        <v>300.2831496757664</v>
       </c>
       <c r="L31" t="n">
         <v>557.4621512791394</v>
@@ -6636,13 +6636,13 @@
         <v>1113.046087107759</v>
       </c>
       <c r="O31" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P31" t="n">
         <v>1581.729743385192</v>
       </c>
       <c r="Q31" t="n">
-        <v>1678.203301484817</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R31" t="n">
         <v>1649.242993404582</v>
@@ -6663,10 +6663,10 @@
         <v>850.6627251852103</v>
       </c>
       <c r="X31" t="n">
-        <v>711.5230842553817</v>
+        <v>711.5230842553818</v>
       </c>
       <c r="Y31" t="n">
-        <v>583.3517043592134</v>
+        <v>583.3517043592135</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G32" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H32" t="n">
         <v>68.77950792924223</v>
@@ -6739,7 +6739,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W32" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X32" t="n">
         <v>2147.691468840156</v>
@@ -6779,25 +6779,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J33" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K33" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L33" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M33" t="n">
-        <v>802.5350401618138</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N33" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O33" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P33" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.454662679751</v>
@@ -6858,25 +6858,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J34" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K34" t="n">
-        <v>273.0105384364859</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L34" t="n">
-        <v>437.1381783102858</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M34" t="n">
-        <v>623.4297566485498</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N34" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O34" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P34" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q34" t="n">
         <v>1098.20216247628</v>
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
         <v>1352.560722599516</v>
@@ -6922,13 +6922,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975453</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924223</v>
@@ -6964,7 +6964,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6973,16 +6973,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7016,13 +7016,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
         <v>1223.947919817482</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2243.686201918055</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>2205.157820666453</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>2181.201444251376</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>2157.319368792987</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>2131.670170688369</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>2095.092853470223</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>2071.291039114125</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
-        <v>2069.873350433611</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>2069.873350433611</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K37" t="n">
-        <v>2151.708391543553</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L37" t="n">
-        <v>2315.836031417353</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M37" t="n">
-        <v>2502.127609755617</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N37" t="n">
-        <v>2685.317243786826</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O37" t="n">
-        <v>2975.037013115729</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
-        <v>3094.913178892308</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>3098.335375262359</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
-        <v>3105.956385205776</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
-        <v>3034.817038070734</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>2930.774722921377</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>2777.012667845686</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>2642.710059348919</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>2491.056393962505</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>2388.652808427897</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>2297.217483926948</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7159,16 +7159,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975453</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
         <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7195,13 +7195,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7213,7 +7213,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C39" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D39" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E39" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F39" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G39" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H39" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.359996292367</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>1590.92608219068</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M39" t="n">
-        <v>2044.55704527882</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N39" t="n">
-        <v>2700.335016489379</v>
+        <v>2148.973980501895</v>
       </c>
       <c r="O39" t="n">
-        <v>2700.335016489379</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P39" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R39" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S39" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T39" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U39" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V39" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W39" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X39" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y39" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2243.686201918056</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>2205.157820666454</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>2181.201444251377</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>2157.319368792988</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>2131.67017068837</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>2095.092853470224</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>2071.291039114127</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
-        <v>2069.873350433613</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>2169.155977458604</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>2250.991018568546</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>2415.118658442346</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>2601.41023678061</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P40" t="n">
-        <v>3102.534188835725</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>3105.956385205776</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
-        <v>3105.956385205776</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
-        <v>3034.817038070734</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>2930.774722921377</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>2777.012667845686</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>2642.710059348919</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>2491.056393962505</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>2388.652808427897</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>2297.217483926949</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1358.665499851</v>
+        <v>1160.3185172936</v>
       </c>
       <c r="C41" t="n">
-        <v>1040.449113771267</v>
+        <v>842.1021312138668</v>
       </c>
       <c r="D41" t="n">
-        <v>1040.449113771267</v>
+        <v>531.6201178478707</v>
       </c>
       <c r="E41" t="n">
-        <v>712.8247043051476</v>
+        <v>203.9957083817515</v>
       </c>
       <c r="F41" t="n">
-        <v>712.8247043051476</v>
+        <v>203.9957083817515</v>
       </c>
       <c r="G41" t="n">
-        <v>374.6210642104872</v>
+        <v>203.9957083817515</v>
       </c>
       <c r="H41" t="n">
-        <v>125.4971291943143</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7456,7 +7456,7 @@
         <v>1807.385741249723</v>
       </c>
       <c r="Y41" t="n">
-        <v>1684.20113014506</v>
+        <v>1485.85414758766</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L42" t="n">
-        <v>175.2341099238429</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M42" t="n">
-        <v>803.0057595505241</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.783730761083</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>1975.304013352064</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>457.0353278472406</v>
+        <v>205.5206864041829</v>
       </c>
       <c r="C43" t="n">
-        <v>457.0353278472406</v>
+        <v>110.2746838875084</v>
       </c>
       <c r="D43" t="n">
-        <v>457.0353278472406</v>
+        <v>110.2746838875084</v>
       </c>
       <c r="E43" t="n">
-        <v>376.4356311237795</v>
+        <v>110.2746838875084</v>
       </c>
       <c r="F43" t="n">
-        <v>294.0688117540889</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G43" t="n">
-        <v>200.7738732708708</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H43" t="n">
-        <v>120.2544376497012</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>105.8128141272095</v>
+        <v>105.8128141272094</v>
       </c>
       <c r="K43" t="n">
-        <v>261.1152842576828</v>
+        <v>261.1152842576826</v>
       </c>
       <c r="L43" t="n">
-        <v>498.710353152014</v>
+        <v>498.7103531520137</v>
       </c>
       <c r="M43" t="n">
-        <v>758.4693605108096</v>
+        <v>758.4693605108091</v>
       </c>
       <c r="N43" t="n">
         <v>1015.12642356255</v>
       </c>
       <c r="O43" t="n">
-        <v>1251.29861962479</v>
+        <v>1251.298619624789</v>
       </c>
       <c r="P43" t="n">
-        <v>1444.6422144219</v>
+        <v>1444.642214421899</v>
       </c>
       <c r="Q43" t="n">
-        <v>1521.531839812482</v>
+        <v>1521.531839812481</v>
       </c>
       <c r="R43" t="n">
-        <v>1472.589965862395</v>
+        <v>1521.531839812481</v>
       </c>
       <c r="S43" t="n">
-        <v>1472.589965862395</v>
+        <v>1393.674871412367</v>
       </c>
       <c r="T43" t="n">
-        <v>1311.830029447966</v>
+        <v>1232.914934997937</v>
       </c>
       <c r="U43" t="n">
-        <v>1101.350353107203</v>
+        <v>1022.435258657174</v>
       </c>
       <c r="V43" t="n">
-        <v>910.330123345364</v>
+        <v>831.415028895335</v>
       </c>
       <c r="W43" t="n">
-        <v>701.9588366938781</v>
+        <v>623.0437422438489</v>
       </c>
       <c r="X43" t="n">
-        <v>567.2842311212055</v>
+        <v>463.9225354441683</v>
       </c>
       <c r="Y43" t="n">
-        <v>567.2842311212055</v>
+        <v>315.7695896781479</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1692.866450189949</v>
+        <v>1698.58089976331</v>
       </c>
       <c r="C44" t="n">
-        <v>1692.866450189949</v>
+        <v>1380.364513683577</v>
       </c>
       <c r="D44" t="n">
-        <v>1382.384436823953</v>
+        <v>1069.882500317581</v>
       </c>
       <c r="E44" t="n">
-        <v>1054.760027357834</v>
+        <v>742.2580908514619</v>
       </c>
       <c r="F44" t="n">
-        <v>712.8247043051479</v>
+        <v>400.322767798776</v>
       </c>
       <c r="G44" t="n">
-        <v>374.6210642104874</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>125.4971291943144</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7684,16 +7684,16 @@
         <v>2685.066844392851</v>
       </c>
       <c r="V44" t="n">
-        <v>2417.919150513706</v>
+        <v>2660.14161336904</v>
       </c>
       <c r="W44" t="n">
-        <v>2121.87923089933</v>
+        <v>2660.14161336904</v>
       </c>
       <c r="X44" t="n">
-        <v>1807.385741249723</v>
+        <v>2345.648123719433</v>
       </c>
       <c r="Y44" t="n">
-        <v>1692.866450189949</v>
+        <v>2024.116530057371</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C45" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D45" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E45" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F45" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G45" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H45" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>900.7358324498676</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>900.7358324498676</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>1305.886481777555</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1933.658131404236</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>2589.436102614795</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O45" t="n">
-        <v>3105.956385205776</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>3105.956385205776</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R45" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S45" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T45" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U45" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V45" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W45" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X45" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y45" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>455.3425061576993</v>
+        <v>470.0690730532041</v>
       </c>
       <c r="C46" t="n">
-        <v>455.3425061576993</v>
+        <v>374.8230705365297</v>
       </c>
       <c r="D46" t="n">
-        <v>374.6685084775504</v>
+        <v>294.1490728563807</v>
       </c>
       <c r="E46" t="n">
-        <v>294.0688117540892</v>
+        <v>213.5493761329195</v>
       </c>
       <c r="F46" t="n">
-        <v>294.0688117540892</v>
+        <v>213.5493761329195</v>
       </c>
       <c r="G46" t="n">
-        <v>200.773873270871</v>
+        <v>120.2544376497013</v>
       </c>
       <c r="H46" t="n">
         <v>120.2544376497013</v>
@@ -7839,19 +7839,19 @@
         <v>1360.771903398052</v>
       </c>
       <c r="U46" t="n">
-        <v>1150.292227057289</v>
+        <v>1286.983645306196</v>
       </c>
       <c r="V46" t="n">
-        <v>959.2719972954495</v>
+        <v>1095.963415544356</v>
       </c>
       <c r="W46" t="n">
-        <v>750.9007106439635</v>
+        <v>887.5921288928702</v>
       </c>
       <c r="X46" t="n">
-        <v>591.779503844283</v>
+        <v>728.4709220931895</v>
       </c>
       <c r="Y46" t="n">
-        <v>565.5914094316643</v>
+        <v>580.3179763271692</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>701.2411122488187</v>
+        <v>466.7144144634705</v>
       </c>
       <c r="N2" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>359.0336792490003</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8060,16 +8060,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>234.9862648617782</v>
       </c>
       <c r="M3" t="n">
-        <v>560.2818744604613</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N3" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>162.1578292717216</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
@@ -8227,13 +8227,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>487.848403846783</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8294,28 +8294,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>422.8212561536984</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234617</v>
+        <v>673.3036524843452</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8531,7 +8531,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>89.59693533333335</v>
@@ -8540,7 +8540,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>308.5636983559938</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
@@ -8549,7 +8549,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>235.8239269133925</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8768,19 +8768,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>438.5811111539143</v>
       </c>
       <c r="N12" t="n">
-        <v>668.5665922884427</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -9005,19 +9005,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>258.8480380294549</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9026,7 +9026,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9242,28 +9242,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.2265410010273</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>223.122899967847</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9479,25 +9479,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>351.8313913012159</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9719,13 +9719,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M24" t="n">
-        <v>201.8486954419035</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
@@ -9734,10 +9734,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,16 +9953,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>499.3034269858954</v>
       </c>
       <c r="M27" t="n">
-        <v>351.8313913012167</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
         <v>747.7741039759435</v>
@@ -9971,7 +9971,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
         <v>90.98815315591399</v>
@@ -10193,10 +10193,10 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>203.8424305246122</v>
+        <v>575.5973938481089</v>
       </c>
       <c r="M30" t="n">
         <v>726.4998994499999</v>
@@ -10205,13 +10205,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10427,19 +10427,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10448,7 +10448,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10664,7 +10664,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10673,7 +10673,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>454.5321323046928</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
         <v>85.37211285416666</v>
@@ -10910,16 +10910,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>550.6002160777363</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>92.68755888888889</v>
+        <v>326.5064297756122</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11138,28 +11138,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>136.3731801151487</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.3264449482919</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11378,25 +11378,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>499.3034269858956</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23260,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>31.08403414297982</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>287.5954430211825</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>275.7170059000175</v>
       </c>
       <c r="H11" t="n">
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23497,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>295.2524720077822</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>20.21687778176204</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404348</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>116.5130781045869</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414342</v>
+        <v>42.96247126414339</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404354</v>
+        <v>70.85714503404351</v>
       </c>
       <c r="T26" t="n">
         <v>127.2743219418611</v>
       </c>
       <c r="U26" t="n">
-        <v>31.13871417189273</v>
+        <v>159.203927795431</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>145.2325565835406</v>
       </c>
     </row>
     <row r="27">
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>70.85714503404351</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>127.2743219418611</v>
       </c>
       <c r="U29" t="n">
-        <v>159.2039277954309</v>
+        <v>32.35910216055439</v>
       </c>
       <c r="V29" t="n">
-        <v>94.75969028163075</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>291.5668045419573</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -25633,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>307.3771932323359</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>338.5159698221589</v>
+        <v>338.515969822159</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>334.8216036937139</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>106.1748807951517</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>62.74422147529688</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>196.3635127318255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>94.29354249150761</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>79.86725770334733</v>
+        <v>79.86725770334746</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>79.79369975622657</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>33.86915055443487</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>92.36198909838598</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>79.71424126495802</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>57.55395684612995</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>48.45245521058587</v>
       </c>
       <c r="S43" t="n">
-        <v>126.5783987161131</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.20213521473778</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>146.67141630836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>322.2802739911199</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>315.0342222189357</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>246.6326956660113</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>62.74422147529688</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25924,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>239.8002382267813</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>293.0795204182325</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>204.9421795762656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>94.29354249150772</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>81.54315117599383</v>
+        <v>81.54315117599384</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>79.71424126495802</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>48.45245521058585</v>
+        <v>48.45245521058587</v>
       </c>
       <c r="S46" t="n">
         <v>126.5783987161132</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>135.3245040664179</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.7452028398676</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>534236.9540340281</v>
+        <v>534236.954034028</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>508033.3672121271</v>
+        <v>508033.367212127</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>508033.367212127</v>
+        <v>508033.3672121269</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>721328.7123734272</v>
+        <v>721328.7123734271</v>
       </c>
       <c r="C2" t="n">
         <v>721328.7123734271</v>
       </c>
       <c r="D2" t="n">
-        <v>721328.7123734269</v>
+        <v>721328.7123734271</v>
       </c>
       <c r="E2" t="n">
-        <v>677904.4907329538</v>
+        <v>677904.4907329537</v>
       </c>
       <c r="F2" t="n">
-        <v>677904.4907329538</v>
+        <v>677904.4907329542</v>
       </c>
       <c r="G2" t="n">
+        <v>721328.7123734272</v>
+      </c>
+      <c r="H2" t="n">
+        <v>721328.7123734272</v>
+      </c>
+      <c r="I2" t="n">
+        <v>721328.7123734277</v>
+      </c>
+      <c r="J2" t="n">
+        <v>677904.4907329524</v>
+      </c>
+      <c r="K2" t="n">
+        <v>677904.490732954</v>
+      </c>
+      <c r="L2" t="n">
+        <v>721328.7123734276</v>
+      </c>
+      <c r="M2" t="n">
+        <v>721328.7123734273</v>
+      </c>
+      <c r="N2" t="n">
         <v>721328.7123734275</v>
       </c>
-      <c r="H2" t="n">
-        <v>721328.7123734276</v>
-      </c>
-      <c r="I2" t="n">
-        <v>721328.7123734275</v>
-      </c>
-      <c r="J2" t="n">
-        <v>677904.4907329538</v>
-      </c>
-      <c r="K2" t="n">
-        <v>677904.4907329539</v>
-      </c>
-      <c r="L2" t="n">
-        <v>721328.7123734273</v>
-      </c>
-      <c r="M2" t="n">
-        <v>721328.7123734276</v>
-      </c>
-      <c r="N2" t="n">
-        <v>721328.7123734273</v>
-      </c>
       <c r="O2" t="n">
-        <v>642966.3749704178</v>
+        <v>642966.3749704182</v>
       </c>
       <c r="P2" t="n">
         <v>642966.3749704181</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301434</v>
+        <v>29094.95587301435</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>200837.4980720421</v>
+        <v>200837.4980720422</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>58189.91174602868</v>
+        <v>58189.91174602872</v>
       </c>
       <c r="M3" t="n">
         <v>46121.92123989166</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1177.707664501588</v>
+        <v>1177.707664501639</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26456,7 +26456,7 @@
         <v>147651.9979996332</v>
       </c>
       <c r="O4" t="n">
-        <v>103057.3142718671</v>
+        <v>103057.314271867</v>
       </c>
       <c r="P4" t="n">
         <v>103057.314271867</v>
@@ -26508,7 +26508,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>53449.25755040765</v>
+        <v>53449.25755040764</v>
       </c>
       <c r="P5" t="n">
         <v>53449.25755040764</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>276309.4375403504</v>
+        <v>276309.4375403502</v>
       </c>
       <c r="C6" t="n">
         <v>474505.2435320952</v>
       </c>
       <c r="D6" t="n">
-        <v>474505.243532095</v>
+        <v>474505.2435320952</v>
       </c>
       <c r="E6" t="n">
-        <v>369291.5927301814</v>
+        <v>369183.0321760799</v>
       </c>
       <c r="F6" t="n">
-        <v>499744.5238678935</v>
+        <v>499635.9633137927</v>
       </c>
       <c r="G6" t="n">
-        <v>486411.9891852603</v>
+        <v>486411.98918526</v>
       </c>
       <c r="H6" t="n">
-        <v>515506.9450582747</v>
+        <v>515506.9450582744</v>
       </c>
       <c r="I6" t="n">
+        <v>515506.9450582748</v>
+      </c>
+      <c r="J6" t="n">
+        <v>298798.4652417486</v>
+      </c>
+      <c r="K6" t="n">
+        <v>499635.9633137924</v>
+      </c>
+      <c r="L6" t="n">
+        <v>457317.033312246</v>
+      </c>
+      <c r="M6" t="n">
+        <v>469385.0238183828</v>
+      </c>
+      <c r="N6" t="n">
         <v>515506.9450582746</v>
       </c>
-      <c r="J6" t="n">
-        <v>298907.0257958514</v>
-      </c>
-      <c r="K6" t="n">
-        <v>499744.5238678935</v>
-      </c>
-      <c r="L6" t="n">
-        <v>457317.0333122458</v>
-      </c>
-      <c r="M6" t="n">
-        <v>469385.0238183831</v>
-      </c>
-      <c r="N6" t="n">
-        <v>515506.9450582745</v>
-      </c>
       <c r="O6" t="n">
-        <v>485282.0954836414</v>
+        <v>485086.1896401343</v>
       </c>
       <c r="P6" t="n">
-        <v>486459.8031481434</v>
+        <v>486263.8973046358</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26709,10 +26709,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="L2" t="n">
         <v>130.3599693155844</v>
@@ -26724,10 +26724,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>74.20952426316306</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="P2" t="n">
-        <v>74.20952426316295</v>
+        <v>74.20952426316293</v>
       </c>
     </row>
     <row r="3">
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126792</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304836</v>
+        <v>57.62257963304849</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.472134580626985</v>
+        <v>1.472134580627048</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126792</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304836</v>
+        <v>57.62257963304849</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>320.6317469998847</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -27396,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>204.6261528204675</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
@@ -27560,7 +27560,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27596,16 +27596,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>176.1617951709571</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>11.81426726582805</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>321.0361146547959</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>257.3308137911801</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -27681,10 +27681,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27785,13 +27785,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.938088825158</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27824,16 +27824,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>35.92594277811168</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27842,7 +27842,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>95.76444978932631</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>82.34311486695339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
@@ -28061,25 +28061,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>115.6083692242646</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>174.2145624116609</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C11" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D11" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E11" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F11" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G11" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H11" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I11" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T11" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U11" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V11" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W11" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X11" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C13" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D13" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E13" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F13" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G13" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H13" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I13" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J13" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K13" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L13" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M13" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N13" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O13" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P13" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R13" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S13" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T13" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U13" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V13" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W13" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X13" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431673</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="17">
@@ -28745,7 +28745,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>35.71049010668811</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28760,13 +28760,13 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
+        <v>5.636002634528921</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
@@ -28988,13 +28988,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>35.71049010668821</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>28.01250026485255</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29006,7 +29006,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29222,28 +29222,28 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>128.297982108277</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="C26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="D26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="E26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="F26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="G26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="H26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="I26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="T26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="U26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="V26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="W26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="X26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431643</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="C28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="D28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="E28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="F28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="H28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="I28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="J28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="K28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="L28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="M28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="N28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="O28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="P28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="R28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="S28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="T28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="U28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="V28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="W28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="X28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431643</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
     </row>
     <row r="32">
@@ -29930,10 +29930,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K34" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29942,7 +29942,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>35.71049010668813</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -29951,7 +29951,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>122.6619794737488</v>
@@ -30167,10 +30167,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>35.71049010668817</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30182,7 +30182,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30191,7 +30191,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30404,28 +30404,28 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>35.71049010668617</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R40" t="n">
         <v>122.6619794737488</v>
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>74.20952426316306</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="C41" t="n">
-        <v>74.20952426316306</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="D41" t="n">
-        <v>74.20952426316306</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="E41" t="n">
-        <v>74.20952426316306</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="F41" t="n">
-        <v>74.20952426316306</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="G41" t="n">
-        <v>74.20952426316306</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="H41" t="n">
-        <v>74.20952426316306</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="I41" t="n">
-        <v>74.20952426316306</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>74.20952426316306</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="T41" t="n">
-        <v>74.20952426316306</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="U41" t="n">
-        <v>74.20952426316306</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="V41" t="n">
-        <v>74.20952426316306</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="W41" t="n">
-        <v>74.20952426316306</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="X41" t="n">
-        <v>74.20952426316306</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="Y41" t="n">
-        <v>74.20952426316306</v>
+        <v>74.20952426316293</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>74.20952426316306</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="C43" t="n">
-        <v>74.20952426316306</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="D43" t="n">
-        <v>74.20952426316306</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="E43" t="n">
-        <v>74.20952426316306</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="F43" t="n">
-        <v>74.20952426316306</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="G43" t="n">
-        <v>74.20952426316306</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="H43" t="n">
-        <v>74.20952426316306</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="I43" t="n">
-        <v>74.20952426316306</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="J43" t="n">
-        <v>74.20952426316306</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="K43" t="n">
-        <v>74.20952426316306</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="L43" t="n">
-        <v>74.20952426316306</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="M43" t="n">
-        <v>74.20952426316306</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="N43" t="n">
-        <v>74.20952426316306</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="O43" t="n">
-        <v>74.20952426316306</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="P43" t="n">
-        <v>74.20952426316306</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.20952426316306</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="R43" t="n">
-        <v>74.20952426316306</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="S43" t="n">
-        <v>74.20952426316306</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="T43" t="n">
-        <v>74.20952426316306</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="U43" t="n">
-        <v>74.20952426316306</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="V43" t="n">
-        <v>74.20952426316306</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="W43" t="n">
-        <v>74.20952426316306</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="X43" t="n">
-        <v>74.20952426316306</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="Y43" t="n">
-        <v>74.20952426316306</v>
+        <v>74.20952426316293</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>74.20952426316295</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="C44" t="n">
-        <v>74.20952426316295</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="D44" t="n">
-        <v>74.20952426316295</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="E44" t="n">
-        <v>74.20952426316295</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="F44" t="n">
-        <v>74.20952426316295</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="G44" t="n">
-        <v>74.20952426316295</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="H44" t="n">
-        <v>74.20952426316295</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="I44" t="n">
-        <v>74.20952426316295</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>74.20952426316295</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="T44" t="n">
-        <v>74.20952426316295</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="U44" t="n">
-        <v>74.20952426316295</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="V44" t="n">
-        <v>74.20952426316295</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="W44" t="n">
-        <v>74.20952426316295</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="X44" t="n">
-        <v>74.20952426316295</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="Y44" t="n">
-        <v>74.20952426316295</v>
+        <v>74.20952426316293</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>74.20952426316295</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="C46" t="n">
-        <v>74.20952426316295</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="D46" t="n">
-        <v>74.20952426316295</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="E46" t="n">
-        <v>74.20952426316295</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="F46" t="n">
-        <v>74.20952426316295</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="G46" t="n">
-        <v>74.20952426316295</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="H46" t="n">
-        <v>74.20952426316295</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="I46" t="n">
-        <v>74.20952426316295</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="J46" t="n">
-        <v>74.20952426316295</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="K46" t="n">
-        <v>74.20952426316295</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="L46" t="n">
-        <v>74.20952426316295</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="M46" t="n">
-        <v>74.20952426316295</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="N46" t="n">
-        <v>74.20952426316295</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="O46" t="n">
-        <v>74.20952426316295</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="P46" t="n">
-        <v>74.20952426316295</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.20952426316295</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="R46" t="n">
-        <v>74.20952426316295</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="S46" t="n">
-        <v>74.20952426316295</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="T46" t="n">
-        <v>74.20952426316295</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="U46" t="n">
-        <v>74.20952426316295</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="V46" t="n">
-        <v>74.20952426316295</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="W46" t="n">
-        <v>74.20952426316295</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="X46" t="n">
-        <v>74.20952426316295</v>
+        <v>74.20952426316293</v>
       </c>
       <c r="Y46" t="n">
-        <v>74.20952426316295</v>
+        <v>74.20952426316293</v>
       </c>
     </row>
   </sheetData>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>551.5160606510915</v>
+        <v>316.9893628657432</v>
       </c>
       <c r="N2" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>209.4698418249039</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34780,16 +34780,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>144.92591800486</v>
       </c>
       <c r="M3" t="n">
-        <v>467.8947524111493</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N3" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>44.47799132937548</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
@@ -34947,13 +34947,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>338.7299125089989</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>330.4341341043865</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692951</v>
+        <v>587.9315396301786</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,7 +35260,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>216.1765763066819</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
@@ -35269,7 +35269,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>148.7405620940779</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>346.1939891046024</v>
       </c>
       <c r="N12" t="n">
-        <v>583.1944794342761</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215733</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
@@ -35585,10 +35585,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P13" t="n">
-        <v>215.0783106122745</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446888</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35661,7 +35661,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
         <v>351.7045375065877</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>173.4759251752883</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35746,7 +35746,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6529321611264</v>
+        <v>176.6529321611267</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
@@ -35825,7 +35825,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>113.782083667694</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>137.7507871136803</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.636002634529037</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36056,13 +36056,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>294.7082188526632</v>
+        <v>169.9842521716078</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>259.444269251904</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36284,13 +36284,13 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>201.4959849287082</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>213.0525346398113</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
@@ -36302,7 +36302,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M24" t="n">
-        <v>109.4615733925916</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
         <v>662.4019911217769</v>
@@ -36454,10 +36454,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36530,16 +36530,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634528176</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>409.2430801289772</v>
       </c>
       <c r="M27" t="n">
-        <v>259.4442692519048</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
         <v>662.4019911217769</v>
@@ -36691,7 +36691,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215733</v>
+        <v>63.91678700215736</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36770,10 +36770,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122745</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446888</v>
+        <v>97.44803848446891</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36913,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>113.782083667694</v>
+        <v>485.5370469911907</v>
       </c>
       <c r="M30" t="n">
         <v>634.1127774006881</v>
@@ -36925,13 +36925,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215736</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37010,7 +37010,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446891</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37168,7 +37168,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K34" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
         <v>165.78549482202</v>
@@ -37238,7 +37238,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>185.0400343749588</v>
+        <v>220.7505244816469</v>
       </c>
       <c r="O34" t="n">
         <v>164.3482495370789</v>
@@ -37247,7 +37247,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37393,7 +37393,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>118.3721477934981</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37478,7 +37478,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>292.6462316453567</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37487,7 +37487,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110598</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>458.2130940284243</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>233.8188708867233</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434254</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37712,16 +37712,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>220.750524481645</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>51.00106726098203</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.2430801289772</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>44.13503679100399</v>
+        <v>44.13503679100386</v>
       </c>
       <c r="K43" t="n">
-        <v>156.871181949973</v>
+        <v>156.8711819499729</v>
       </c>
       <c r="L43" t="n">
-        <v>239.9950190851831</v>
+        <v>239.9950190851829</v>
       </c>
       <c r="M43" t="n">
-        <v>262.382835715955</v>
+        <v>262.3828357159549</v>
       </c>
       <c r="N43" t="n">
-        <v>259.2495586381219</v>
+        <v>259.2495586381217</v>
       </c>
       <c r="O43" t="n">
-        <v>238.5577738002419</v>
+        <v>238.5577738002418</v>
       </c>
       <c r="P43" t="n">
-        <v>195.2965604011212</v>
+        <v>195.2965604011211</v>
       </c>
       <c r="Q43" t="n">
-        <v>77.66628827331554</v>
+        <v>77.66628827331542</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M44" t="n">
         <v>551.5160606510915</v>
@@ -38098,25 +38098,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>409.2430801289773</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>44.13503679100388</v>
+        <v>44.13503679100386</v>
       </c>
       <c r="K46" t="n">
         <v>156.8711819499729</v>
@@ -38186,7 +38186,7 @@
         <v>262.3828357159549</v>
       </c>
       <c r="N46" t="n">
-        <v>259.2495586381218</v>
+        <v>259.2495586381217</v>
       </c>
       <c r="O46" t="n">
         <v>238.5577738002418</v>
@@ -38195,7 +38195,7 @@
         <v>195.2965604011211</v>
       </c>
       <c r="Q46" t="n">
-        <v>77.66628827331543</v>
+        <v>77.66628827331542</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
